--- a/xlsx/_baidu_刘炳_intext.xlsx
+++ b/xlsx/_baidu_刘炳_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>刘炳</t>
   </si>
@@ -38,7 +38,7 @@
     <t>https://baike.baidu.com/item/%E5%88%98%E7%82%B3?force=1</t>
   </si>
   <si>
-    <t>共4个义项</t>
+    <t>共5个义项</t>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E5%88%98%E7%82%B3/5144850#viewPageContent</t>
@@ -57,6 +57,12 @@
   </si>
   <si>
     <t>明代官员</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E5%88%98%E7%82%B3/22287244#viewPageContent</t>
+  </si>
+  <si>
+    <t>广东省第十三届人民代表大会代表</t>
   </si>
   <si>
     <t>https://baike.baidu.com/item/%E6%B1%89%E5%86%B2%E5%B8%9D</t>
@@ -567,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,7 +759,7 @@
         <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -776,7 +782,7 @@
         <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -799,7 +805,7 @@
         <v>19</v>
       </c>
       <c r="G10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -845,7 +851,7 @@
         <v>23</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -868,7 +874,7 @@
         <v>25</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -891,7 +897,7 @@
         <v>27</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -914,7 +920,7 @@
         <v>29</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -937,7 +943,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -960,7 +966,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1029,7 +1035,7 @@
         <v>39</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1052,7 +1058,7 @@
         <v>41</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1121,7 +1127,7 @@
         <v>47</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1144,7 +1150,7 @@
         <v>49</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1167,7 +1173,7 @@
         <v>51</v>
       </c>
       <c r="G26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1190,7 +1196,7 @@
         <v>53</v>
       </c>
       <c r="G27" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1213,7 +1219,7 @@
         <v>55</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1259,7 +1265,7 @@
         <v>59</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1328,7 +1334,7 @@
         <v>65</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1351,6 +1357,29 @@
         <v>67</v>
       </c>
       <c r="G34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
+        <v>69</v>
+      </c>
+      <c r="G35" t="n">
         <v>2</v>
       </c>
     </row>
